--- a/data/Excel/Шаблон 4.0-4.1.xlsx
+++ b/data/Excel/Шаблон 4.0-4.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\СПО\Губанов\Шаблоны форм 3.0 4.0 5.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svv\Documents\GitHub\RAO_Project\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hBPEpXiEdDByJ/LFnCTrb1EGu2gqI6q2qCqncz+d4EHE4iuigub1Tho6UsPLu7XXdb5GoqGlv36eYP1kLD0Q3w==" workbookSaltValue="7xiShYiHnndiyXT8z9sBrA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9288"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="Форма 4.0" sheetId="2" r:id="rId1"/>
@@ -799,41 +799,41 @@
   </sheetPr>
   <dimension ref="A3:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="63.69921875" style="9" customWidth="1"/>
-    <col min="3" max="16384" width="11.19921875" style="9"/>
+    <col min="1" max="2" width="63.75" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="11.25" style="9"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="24"/>
     </row>
-    <row r="7" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="23"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="16"/>
     </row>
-    <row r="10" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
@@ -841,7 +841,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>33</v>
       </c>
@@ -849,126 +849,126 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="16"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="25"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="27"/>
     </row>
-    <row r="19" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="22"/>
     </row>
-    <row r="20" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="22"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="22"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="22"/>
     </row>
-    <row r="23" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="22"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="22"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="22"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="22"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="27"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="22"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="22"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="22"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B31" s="22"/>
     </row>
-    <row r="32" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="22"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="22"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="22"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>23</v>
       </c>
@@ -984,7 +984,7 @@
     <mergeCell ref="A27:B27"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="2" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="2" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -1000,21 +1000,21 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="25.69921875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.19921875" style="1"/>
+    <col min="1" max="9" width="25.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="I3" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>14</v>
       </c>
@@ -1027,7 +1027,7 @@
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
     </row>
-    <row r="7" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -1096,7 +1096,7 @@
       <c r="H9" s="17"/>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -1107,7 +1107,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="21"/>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -1118,7 +1118,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="21"/>
     </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -1129,7 +1129,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -1140,7 +1140,7 @@
       <c r="H13" s="17"/>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -1151,7 +1151,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -1162,7 +1162,7 @@
       <c r="H15" s="17"/>
       <c r="I15" s="21"/>
     </row>
-    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -1173,7 +1173,7 @@
       <c r="H16" s="17"/>
       <c r="I16" s="21"/>
     </row>
-    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -1184,7 +1184,7 @@
       <c r="H17" s="17"/>
       <c r="I17" s="21"/>
     </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -1195,7 +1195,7 @@
       <c r="H18" s="18"/>
       <c r="I18" s="22"/>
     </row>
-    <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -1206,7 +1206,7 @@
       <c r="H19" s="18"/>
       <c r="I19" s="22"/>
     </row>
-    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -1217,7 +1217,7 @@
       <c r="H20" s="18"/>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1228,25 +1228,25 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="22"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="22"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="22"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>12</v>
       </c>
@@ -1258,6 +1258,6 @@
     <mergeCell ref="A5:I5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="52" fitToHeight="7" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="7" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>